--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2891973.66339228</v>
+        <v>2996153.297843351</v>
       </c>
     </row>
     <row r="7">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>166.8092292207413</v>
       </c>
       <c r="C2" t="n">
-        <v>75.4571321610379</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>8.883838847326805</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.1974974666514</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.99649157474511</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>142.3478174606653</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>41.87033634036059</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>146.9083821604494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.5442597171374</v>
+        <v>7.063910705649116</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>154.1856358179421</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>169.2299870234509</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.11937003877873</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>142.8873577254024</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695517</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>117.4765410832903</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012156</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U16" t="n">
-        <v>140.176011444184</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E19" t="n">
-        <v>114.5006452705931</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612949</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.702514956955</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>115.4863975071912</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2293,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>212.3267021497099</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2485,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>54.10799870228475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>212.8565380592848</v>
       </c>
     </row>
     <row r="26">
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>49.33106662725162</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>73.57849775387122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2998,19 +3000,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0.6324680438218387</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3083,13 +3085,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>133.9838498346381</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>278.7019488598313</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3430,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>71.05846343488126</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>89.67992556049168</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784706</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>32.84316668127781</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>100.5140508960355</v>
+        <v>265.9042934353369</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>36.85665993309677</v>
       </c>
       <c r="C46" t="n">
-        <v>105.8460632289448</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
@@ -4337,19 +4339,19 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>775.9977502341333</v>
+        <v>777.020896318616</v>
       </c>
       <c r="C4" t="n">
-        <v>607.0615673062264</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F4" t="n">
         <v>310.0549803959803</v>
@@ -4483,22 +4485,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1918.320973495233</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.60866391532</v>
+        <v>1918.320973495233</v>
       </c>
       <c r="T4" t="n">
-        <v>1514.197050312641</v>
+        <v>1696.55435806476</v>
       </c>
       <c r="U4" t="n">
-        <v>1514.197050312641</v>
+        <v>1407.451491190403</v>
       </c>
       <c r="V4" t="n">
-        <v>1514.197050312641</v>
+        <v>1407.451491190403</v>
       </c>
       <c r="W4" t="n">
-        <v>1224.779880275681</v>
+        <v>1407.451491190403</v>
       </c>
       <c r="X4" t="n">
-        <v>996.7903293776634</v>
+        <v>1179.461940292386</v>
       </c>
       <c r="Y4" t="n">
-        <v>775.9977502341333</v>
+        <v>958.6693611488557</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189674</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213863</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4252100145765</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4755,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1603.48493764218</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1314.382070767823</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1059.697582561936</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>770.2804125249758</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>542.2908616269584</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.4252100145765</v>
+        <v>542.2908616269584</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D8" t="n">
         <v>1575.942324366272</v>
@@ -4796,34 +4798,34 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866152</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>2862.546497866152</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y8" t="n">
-        <v>2472.40716589034</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.322087337517</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C10" t="n">
-        <v>527.322087337517</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1549.784866175249</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1295.100377969362</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>1005.683207932402</v>
       </c>
       <c r="X10" t="n">
-        <v>708.9705521677568</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="Y10" t="n">
-        <v>708.9705521677568</v>
+        <v>777.6936570343842</v>
       </c>
     </row>
     <row r="11">
@@ -5045,13 +5047,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1965.532750177311</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.155899672379</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>641.8461362382112</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>472.9099533103043</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D13" t="n">
-        <v>322.7933138979686</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5264,31 +5266,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,22 +5299,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5321,7 +5323,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>1814.118720444888</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2366.028450684175</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>695.5020655703131</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>526.5658826424063</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.902709831002</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.902709831002</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1835.869149758807</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1581.18466155292</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>916.294644713843</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703131</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5503,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,19 +5536,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5558,7 +5560,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612594</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.2946447138411</v>
+        <v>707.6725264685175</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3584617859342</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="D19" t="n">
-        <v>747.3584617859342</v>
+        <v>388.6197041282751</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238953</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583151</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377265</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340304</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442287</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>889.320991298757</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5744,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3167.361685286662</v>
+        <v>3342.537229081858</v>
       </c>
       <c r="C22" t="n">
-        <v>2998.425502358755</v>
+        <v>3173.601046153951</v>
       </c>
       <c r="D22" t="n">
-        <v>2998.425502358755</v>
+        <v>3023.484406741615</v>
       </c>
       <c r="E22" t="n">
-        <v>2850.512408776362</v>
+        <v>2875.571313159222</v>
       </c>
       <c r="F22" t="n">
-        <v>2703.622461278451</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G22" t="n">
-        <v>2536.426361993331</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q22" t="n">
         <v>4690.833152398593</v>
@@ -5935,25 +5937,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>4006.859733016002</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>3752.175244810115</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>3752.175244810115</v>
       </c>
       <c r="X22" t="n">
-        <v>3388.154264430192</v>
+        <v>3524.185693912098</v>
       </c>
       <c r="Y22" t="n">
-        <v>3167.361685286662</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5968,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797159</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3210.485548300425</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711126</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3175.341129796739</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>3006.404946868832</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456496</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874103</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812248</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>3805.771724668526</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>3577.782173770509</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>3356.989594626978</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913446</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L27" t="n">
-        <v>2876.560776129205</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>3473.939263755757</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>4101.537227310363</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>4101.537227310363</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3118.73869457197</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2949.802511644064</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D28" t="n">
-        <v>2799.685872231728</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>2651.772778649335</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151424</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3521.17973854574</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3300.38715940221</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6454,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6464,19 +6466,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6500,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.872235754091</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C31" t="n">
-        <v>853.936052826184</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
         <v>631.7012443408906</v>
@@ -6646,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W31" t="n">
-        <v>1653.302830625878</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X31" t="n">
-        <v>1425.313279727861</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.520700584331</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6697,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6731,10 +6733,10 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6780,22 +6782,22 @@
         <v>2383.002557118212</v>
       </c>
       <c r="K33" t="n">
-        <v>2716.927329289433</v>
+        <v>2383.002557118212</v>
       </c>
       <c r="L33" t="n">
-        <v>3212.252935505192</v>
+        <v>2453.684166529966</v>
       </c>
       <c r="M33" t="n">
-        <v>3241.424143276704</v>
+        <v>3051.062654156518</v>
       </c>
       <c r="N33" t="n">
-        <v>3869.022106831311</v>
+        <v>3678.660617711125</v>
       </c>
       <c r="O33" t="n">
-        <v>4420.931837070598</v>
+        <v>4230.570347950412</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070598</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="Q33" t="n">
         <v>4654.19349744548</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>945.402603663004</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>776.4664207350971</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>626.3497813227614</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>478.4366877403683</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>478.4366877403683</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>311.2405884552482</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
@@ -6883,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192548</v>
@@ -6950,37 +6952,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.530292372932</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C37" t="n">
-        <v>853.5941094450255</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D37" t="n">
-        <v>703.4774700326898</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7126,19 +7128,19 @@
         <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487567</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.37805728168</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346702</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.178757203172</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7163,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111739</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D40" t="n">
-        <v>415.5933575433587</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7375,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7409,19 +7411,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7448,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>3051.062654156519</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>3051.062654156519</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>3678.660617711126</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950413</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1332.172021309389</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7646,10 +7648,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,10 +7684,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591809</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3324.292621228102</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>3951.890584782709</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>4503.800315021996</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.8431516380886</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356203</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232844</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408912</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831763</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625876</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588915</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>1135.896109690898</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>1135.896109690898</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>22.63678056686643</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>31.1389319349219</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856541</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>146.0084629450601</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>31.93331737597606</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>191.8807364711586</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>24.80831533903267</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>73.85777223953423</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>232.4149996343062</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>5.728115292809946</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>75.03697526434114</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24886,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>251.5051752800062</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.310863011585838</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>7.48252552941284</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>75.37549921168791</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>75.84421273177716</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>113.5907959652914</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>186.0089474405555</v>
+        <v>20.61870490125415</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>142.9753202488407</v>
       </c>
       <c r="C46" t="n">
-        <v>61.40075786968302</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737410.9310912271</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365052</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="O2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815705</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680597</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26445,19 +26447,19 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
+        <v>11776.97621680588</v>
+      </c>
+      <c r="M4" t="n">
         <v>11776.97621680587</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11776.97621680574</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680577</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-829757.1928925023</v>
+        <v>-829757.1928925022</v>
       </c>
       <c r="C6" t="n">
-        <v>498987.5528350908</v>
+        <v>498987.5528350903</v>
       </c>
       <c r="D6" t="n">
-        <v>498987.5528350906</v>
+        <v>498987.5528350904</v>
       </c>
       <c r="E6" t="n">
-        <v>247762.6418884375</v>
+        <v>247762.6418884378</v>
       </c>
       <c r="F6" t="n">
-        <v>573175.1036957925</v>
+        <v>573175.1036957923</v>
       </c>
       <c r="G6" t="n">
         <v>573175.1036957926</v>
       </c>
       <c r="H6" t="n">
-        <v>573175.1036957928</v>
+        <v>573175.1036957927</v>
       </c>
       <c r="I6" t="n">
-        <v>573175.1036957928</v>
+        <v>573175.103695793</v>
       </c>
       <c r="J6" t="n">
-        <v>355643.9012985149</v>
+        <v>355643.9012985152</v>
       </c>
       <c r="K6" t="n">
+        <v>573175.1036957923</v>
+      </c>
+      <c r="L6" t="n">
+        <v>573175.1036957927</v>
+      </c>
+      <c r="M6" t="n">
+        <v>488120.0757602808</v>
+      </c>
+      <c r="N6" t="n">
         <v>573175.1036957931</v>
-      </c>
-      <c r="L6" t="n">
-        <v>573175.1036957928</v>
-      </c>
-      <c r="M6" t="n">
-        <v>488120.0757602811</v>
-      </c>
-      <c r="N6" t="n">
-        <v>573175.1036957926</v>
       </c>
       <c r="O6" t="n">
         <v>573175.1036957928</v>
       </c>
       <c r="P6" t="n">
-        <v>573175.1036957926</v>
+        <v>573175.103695793</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26697,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26716,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>215.9246124427393</v>
       </c>
       <c r="C2" t="n">
-        <v>289.8157596099696</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>80.04831382272053</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0.351451809517755</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>323.7373500887355</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>222.9250743103422</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,7 +27791,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>177.6786129358086</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>71.67627119164538</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215.1895819463432</v>
+        <v>375.6699309578315</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>132.0262023876708</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>56.47966836558621</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28579,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28621,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="20">
@@ -29809,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="36">
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31607,7 +31609,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31835,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>305.5427724581384</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32077,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704916</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32312,28 +32314,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32552,25 +32554,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>197.6412480909884</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32795,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>538.5853835133125</v>
       </c>
       <c r="N24" t="n">
-        <v>604.2458225991924</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>493.6049778318539</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33269,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>567.4250434254225</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,13 +33502,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422519</v>
       </c>
       <c r="M33" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33517,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33734,7 +33736,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>382.1329742631541</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663306</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33974,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>211.0222436375121</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,22 +34207,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>476.0648089385462</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.5609983721169</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>426.9760727509455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561613</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295349</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295352</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>396.4513495912942</v>
       </c>
       <c r="N24" t="n">
-        <v>472.904110515859</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>359.6305704175236</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>436.0833313420891</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,13 +37150,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>71.3955650623777</v>
       </c>
       <c r="M33" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37165,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37382,7 +37384,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396443</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37622,16 +37624,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>73.18080466315311</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>337.510429158672</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629532</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2996153.297843351</v>
+        <v>2992140.687829358</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.8092292207413</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>315.4848458704581</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>8.883838847326805</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>134.6214349351976</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>142.3478174606653</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>62.92930610001507</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>131.6653792309046</v>
       </c>
       <c r="T7" t="n">
-        <v>41.87033634036059</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1116,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.063910705649116</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506846</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>154.1856358179421</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>62.09581973348946</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>142.8873577254024</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>117.4765410832903</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012156</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>25.52471385612949</v>
+        <v>25.52471385612724</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187894</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3267021497099</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>176.762144112141</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428162</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.8565380592848</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>39.52129633183119</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6324680438218387</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3091,10 +3091,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,19 +3243,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>278.7019488598313</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>89.67992556049168</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.11937003877873</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>265.9042934353369</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.85665993309677</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.294712846224</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1513.341883274785</v>
+        <v>1611.504630229387</v>
       </c>
       <c r="C2" t="n">
-        <v>1144.379366334374</v>
+        <v>1611.504630229387</v>
       </c>
       <c r="D2" t="n">
-        <v>786.1136677276232</v>
+        <v>1253.238931622637</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276232</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1998.104470293509</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228012</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.020896318616</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="C4" t="n">
-        <v>608.0847133907091</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9680739783734</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
         <v>315.6219318279954</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1918.320973495233</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1918.320973495233</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1696.55435806476</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1407.451491190403</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1407.451491190403</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W4" t="n">
-        <v>1407.451491190403</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X4" t="n">
-        <v>1179.461940292386</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="Y4" t="n">
-        <v>958.6693611488557</v>
+        <v>958.1087755619981</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855437</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,7 +4564,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
@@ -4591,13 +4591,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
@@ -4606,13 +4606,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2361.179085794172</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>1987.713327533092</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>360.6423967967187</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>360.6423967967187</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967187</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1794.299215532023</v>
       </c>
       <c r="T7" t="n">
-        <v>1603.48493764218</v>
+        <v>1794.299215532023</v>
       </c>
       <c r="U7" t="n">
-        <v>1314.382070767823</v>
+        <v>1505.196348657667</v>
       </c>
       <c r="V7" t="n">
-        <v>1059.697582561936</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="W7" t="n">
-        <v>770.2804125249758</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X7" t="n">
-        <v>542.2908616269584</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>542.2908616269584</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1952.040104645723</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1549.784866175249</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1295.100377969362</v>
+        <v>1864.571497852645</v>
       </c>
       <c r="W10" t="n">
-        <v>1005.683207932402</v>
+        <v>1575.154327815684</v>
       </c>
       <c r="X10" t="n">
-        <v>777.6936570343842</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="Y10" t="n">
-        <v>777.6936570343842</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="11">
@@ -5032,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5126,22 +5126,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572603</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>527.7722521572603</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>379.8591585748671</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>379.8591585748671</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444888</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703131</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424063</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>407.902709831002</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>407.902709831002</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330918</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648821</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713843</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703131</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.6725264685175</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406107</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282751</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458821</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.15024091081</v>
@@ -5688,37 +5688,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238953</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583151</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377265</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340304</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442287</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.320991298757</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.445529061503</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081858</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153951</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741615</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159222</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.33114932884</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>4006.859733016002</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V22" t="n">
-        <v>3752.175244810115</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>3752.175244810115</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>3524.185693912098</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5983,13 +5983,13 @@
         <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>884.1428749586493</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6305,28 +6305,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>184.7035232280589</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6363,22 +6363,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>473.9330993947872</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>323.8164599824514</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6454,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6545,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811333</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.18466155292</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.195110654903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6694,52 +6694,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118212</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2383.002557118212</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>2453.684166529966</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>3051.062654156518</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>3678.660617711125</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>4230.570347950412</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1762.98966419767</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1508.305175991783</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6967,22 +6967,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1522.21291626627</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>266.4891497944943</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>266.4891497944943</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7174,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>746.8882603249857</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>641.8461362382112</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>472.9099533103043</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>322.7933138979686</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1415.011708352283</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1187.022157454266</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>966.2295783107356</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7642,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356203</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232844</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408912</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429807</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578605</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487566</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831763</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625876</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588915</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.896109690898</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1135.896109690898</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>22.63678056686643</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>31.1389319349219</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856541</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856539</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>191.8807364711586</v>
+        <v>191.880736471161</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>73.85777223953423</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>75.37549921168704</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194227</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.728115292809946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>127.7255247667966</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>251.5051752800062</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>7.48252552941284</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>75.84421273177716</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>20.61870490125415</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>142.9753202488407</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26374,31 +26374,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
-        <v>1.212659602363904e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.612356754776556e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680597</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680569</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26447,10 +26447,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26459,7 +26459,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680582</v>
       </c>
     </row>
     <row r="5">
@@ -26487,7 +26487,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-829757.1928925022</v>
       </c>
       <c r="C6" t="n">
-        <v>498987.5528350903</v>
+        <v>498987.5528350907</v>
       </c>
       <c r="D6" t="n">
-        <v>498987.5528350904</v>
+        <v>498987.5528350906</v>
       </c>
       <c r="E6" t="n">
-        <v>247762.6418884378</v>
+        <v>247415.2626340803</v>
       </c>
       <c r="F6" t="n">
-        <v>573175.1036957923</v>
+        <v>572827.7244414355</v>
       </c>
       <c r="G6" t="n">
-        <v>573175.1036957926</v>
+        <v>572827.7244414351</v>
       </c>
       <c r="H6" t="n">
-        <v>573175.1036957927</v>
+        <v>572827.7244414355</v>
       </c>
       <c r="I6" t="n">
-        <v>573175.103695793</v>
+        <v>572827.7244414359</v>
       </c>
       <c r="J6" t="n">
-        <v>355643.9012985152</v>
+        <v>355296.5220441585</v>
       </c>
       <c r="K6" t="n">
-        <v>573175.1036957923</v>
+        <v>572827.7244414357</v>
       </c>
       <c r="L6" t="n">
-        <v>573175.1036957927</v>
+        <v>572827.7244414355</v>
       </c>
       <c r="M6" t="n">
-        <v>488120.0757602808</v>
+        <v>487772.6965059238</v>
       </c>
       <c r="N6" t="n">
-        <v>573175.1036957931</v>
+        <v>572827.7244414357</v>
       </c>
       <c r="O6" t="n">
-        <v>573175.1036957928</v>
+        <v>572827.7244414358</v>
       </c>
       <c r="P6" t="n">
-        <v>573175.103695793</v>
+        <v>572827.7244414355</v>
       </c>
     </row>
   </sheetData>
@@ -26697,10 +26697,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26718,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022917</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>215.9246124427393</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>66.44552420180366</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>80.04831382272053</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>83.96321841689718</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>222.9250743103422</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>286.3116626173979</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>58.1036461005373</v>
       </c>
       <c r="T7" t="n">
-        <v>177.6786129358086</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>375.6699309578315</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194503</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>132.0262023876708</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>190.0418235903385</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-2.785327524179593e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29811,7 +29811,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31846,25 +31846,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,22 +32080,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>217.8799919951683</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990634</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>538.5853835133125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33025,31 +33025,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>216.857296338707</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>567.4250434254225</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
-        <v>209.9499448422519</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33517,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>382.1329742631541</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L39" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34210,10 +34210,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>79.32561221529411</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.878697277045</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>396.4513495912942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36673,31 +36673,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>90.01966967204031</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>436.0833313420891</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
-        <v>71.3955650623777</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37165,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>248.1585668488238</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L39" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.0464832629532</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2992140.687829358</v>
+        <v>2993901.218132143</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>315.4848458704581</v>
+        <v>76.97130521239099</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>85.41765883067458</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>134.6214349351976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>91.68589292959287</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>62.92930610001507</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>131.6653792309046</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506846</v>
+        <v>23.79925355567548</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>62.09581973348946</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812095</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>25.52471385612724</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187894</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>111.3341376326234</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>176.762144112141</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428162</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>4.974488840438739</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>131.4093105446496</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>70.04554881124324</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1611.504630229387</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C2" t="n">
-        <v>1611.504630229387</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D2" t="n">
-        <v>1253.238931622637</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4327,7 +4327,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539435</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269321</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.243802269321</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y2" t="n">
-        <v>1998.104470293509</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228012</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4430,7 +4430,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125857</v>
@@ -4439,16 +4439,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.4603107317583</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>467.3853640207027</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>467.3853640207027</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>320.4954165227923</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>152.7925798975113</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
         <v>315.6219318279954</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971289</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X4" t="n">
-        <v>1094.090022971289</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y4" t="n">
-        <v>958.1087755619981</v>
+        <v>617.5020034330385</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>581.1420803965852</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>581.1420803965852</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>574.1965796473818</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>159.1241294923782</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4591,13 +4591,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
@@ -4606,13 +4606,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2361.179085794172</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1987.713327533092</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1987.713327533092</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4652,16 +4652,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1794.299215532023</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1794.299215532023</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="U7" t="n">
-        <v>1505.196348657667</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="V7" t="n">
-        <v>1250.51186045178</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1250.51186045178</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.7237329438971</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1864.571497852645</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1575.154327815684</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.164776917667</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1126.372197774137</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>982.5066286471044</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168638</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>2197.062545487568</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="23">
@@ -5968,25 +5968,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6138,19 +6138,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6214,16 +6214,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6363,16 +6363,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6545,16 +6545,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6742,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6782,16 +6782,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>450.3518748756881</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6903,7 +6903,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7019,16 +7019,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7204,7 +7204,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7256,16 +7256,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,37 +7426,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>191.880736471161</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>68.4978425493139</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>75.37549921168704</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194227</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>220.7351665485984</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>34.11482774761927</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>75.37549921168801</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737410.9310912271</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737410.9310912271</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737410.9310912271</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737410.9310912271</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>737410.9310912271</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
@@ -26325,7 +26325,7 @@
         <v>686074.6097365053</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365054</v>
@@ -26334,25 +26334,25 @@
         <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365055</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.612356754776556e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,22 +26420,22 @@
         <v>90964.01098815716</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680576</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680569</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26453,7 +26453,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26478,16 +26478,16 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-829757.1928925022</v>
       </c>
       <c r="C6" t="n">
-        <v>498987.5528350907</v>
+        <v>498987.5528350904</v>
       </c>
       <c r="D6" t="n">
-        <v>498987.5528350906</v>
+        <v>498987.5528350904</v>
       </c>
       <c r="E6" t="n">
-        <v>247415.2626340803</v>
+        <v>247727.9039630011</v>
       </c>
       <c r="F6" t="n">
-        <v>572827.7244414355</v>
+        <v>573140.365770357</v>
       </c>
       <c r="G6" t="n">
-        <v>572827.7244414351</v>
+        <v>573140.3657703572</v>
       </c>
       <c r="H6" t="n">
-        <v>572827.7244414355</v>
+        <v>573140.3657703571</v>
       </c>
       <c r="I6" t="n">
-        <v>572827.7244414359</v>
+        <v>573140.3657703571</v>
       </c>
       <c r="J6" t="n">
-        <v>355296.5220441585</v>
+        <v>355609.1633730796</v>
       </c>
       <c r="K6" t="n">
-        <v>572827.7244414357</v>
+        <v>573140.3657703568</v>
       </c>
       <c r="L6" t="n">
-        <v>572827.7244414355</v>
+        <v>573140.3657703568</v>
       </c>
       <c r="M6" t="n">
-        <v>487772.6965059238</v>
+        <v>488085.3378348452</v>
       </c>
       <c r="N6" t="n">
-        <v>572827.7244414357</v>
+        <v>573140.3657703571</v>
       </c>
       <c r="O6" t="n">
-        <v>572827.7244414358</v>
+        <v>573140.3657703568</v>
       </c>
       <c r="P6" t="n">
-        <v>572827.7244414355</v>
+        <v>573140.365770357</v>
       </c>
     </row>
   </sheetData>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022917</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>66.44552420180366</v>
+        <v>304.9590648598708</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>59.3373560836462</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>83.96321841689718</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>202.9218714577276</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>286.3116626173979</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27824,22 +27824,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>58.1036461005373</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>206.5217571557729</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194503</v>
+        <v>303.9530049144594</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>73.08464294440368</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>190.0418235903385</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.785327524179593e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547051</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>446.0127311990634</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33678,10 +33678,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748309</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>303.878697277045</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
